--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.834632488667438</v>
+        <v>64.834632505440908</v>
       </c>
       <c r="C2">
-        <v>67.947673554891239</v>
+        <v>67.947673537278376</v>
       </c>
       <c r="D2">
-        <v>57.436512327624328</v>
+        <v>57.43651228730139</v>
       </c>
       <c r="E2">
-        <v>72.144336324793272</v>
+        <v>72.144336304373113</v>
       </c>
       <c r="F2">
-        <v>44.591048003342387</v>
+        <v>44.591047991433285</v>
       </c>
       <c r="G2">
-        <v>57.025117767845636</v>
+        <v>57.025117759742322</v>
       </c>
       <c r="H2">
-        <v>50.010262968866094</v>
+        <v>50.010262947930435</v>
       </c>
       <c r="I2">
-        <v>60.040052567691596</v>
+        <v>60.040052567073289</v>
       </c>
       <c r="J2">
-        <v>70.780829258135753</v>
+        <v>70.78082921430547</v>
       </c>
       <c r="K2">
-        <v>55.877018205604401</v>
+        <v>55.877018194198612</v>
       </c>
       <c r="L2">
-        <v>56.021116764299073</v>
+        <v>56.021116740067797</v>
       </c>
       <c r="M2">
-        <v>65.955934795821179</v>
+        <v>65.95593479909158</v>
       </c>
       <c r="N2">
-        <v>62.870613809689686</v>
+        <v>62.870613798574666</v>
       </c>
       <c r="O2">
-        <v>49.138467305471991</v>
+        <v>49.138467275708635</v>
       </c>
       <c r="P2">
-        <v>61.230305611002677</v>
+        <v>61.230305617511007</v>
       </c>
       <c r="Q2">
-        <v>62.659795060827875</v>
+        <v>62.659795042100917</v>
       </c>
       <c r="R2">
-        <v>55.851088387138716</v>
+        <v>55.851088364072623</v>
       </c>
       <c r="S2">
-        <v>83.91099358499936</v>
+        <v>83.910993587561421</v>
       </c>
       <c r="T2">
-        <v>65.560789723731972</v>
+        <v>65.560789742823403</v>
       </c>
       <c r="U2">
-        <v>59.624891636901026</v>
+        <v>59.624891615126103</v>
       </c>
       <c r="V2">
-        <v>52.508451217728691</v>
+        <v>52.508451206898457</v>
       </c>
       <c r="W2">
-        <v>47.340008980371422</v>
+        <v>47.340008942551847</v>
       </c>
       <c r="X2">
-        <v>57.859969381595825</v>
+        <v>57.859969361692244</v>
       </c>
       <c r="Y2">
-        <v>61.338133987256612</v>
+        <v>61.33813396443793</v>
       </c>
       <c r="Z2">
-        <v>60.869262149411412</v>
+        <v>60.869262134303241</v>
       </c>
       <c r="AA2">
-        <v>77.321634496721884</v>
+        <v>77.321634358501868</v>
       </c>
       <c r="AB2">
-        <v>79.657515031509391</v>
+        <v>79.657514980250568</v>
       </c>
       <c r="AC2">
-        <v>52.92698976938955</v>
+        <v>52.926989733438624</v>
       </c>
       <c r="AD2">
-        <v>79.631306109162409</v>
+        <v>79.63130605167369</v>
       </c>
       <c r="AE2">
-        <v>52.112724821686754</v>
+        <v>52.112724816328949</v>
       </c>
       <c r="AF2">
-        <v>60.536749440029531</v>
+        <v>60.536749411470382</v>
       </c>
       <c r="AG2">
-        <v>53.470605111257619</v>
+        <v>53.47060504738495</v>
       </c>
       <c r="AH2">
-        <v>63.102269597014981</v>
+        <v>63.102269571313599</v>
       </c>
       <c r="AI2">
-        <v>80.957577667022321</v>
+        <v>80.957577597165198</v>
       </c>
       <c r="AJ2">
-        <v>57.898140498138105</v>
+        <v>57.898140456527408</v>
       </c>
       <c r="AK2">
-        <v>61.614240636809811</v>
+        <v>61.614240614037215</v>
       </c>
       <c r="AL2">
-        <v>70.468824616254039</v>
+        <v>70.468824583818929</v>
       </c>
       <c r="AM2">
-        <v>65.128684429994252</v>
+        <v>65.128684398943349</v>
       </c>
       <c r="AN2">
-        <v>51.940719576937454</v>
+        <v>51.940719555127188</v>
       </c>
       <c r="AO2">
-        <v>69.169782931215138</v>
+        <v>69.169782868928792</v>
       </c>
       <c r="AP2">
-        <v>67.901927276394304</v>
+        <v>67.901927248507334</v>
       </c>
       <c r="AQ2">
-        <v>58.111536739526976</v>
+        <v>58.111536687005135</v>
       </c>
       <c r="AR2">
-        <v>83.092971982917604</v>
+        <v>83.092971971565547</v>
       </c>
       <c r="AS2">
-        <v>72.804139375117245</v>
+        <v>72.804139297719772</v>
       </c>
       <c r="AT2">
-        <v>67.200252838351759</v>
+        <v>67.20025281236984</v>
       </c>
       <c r="AU2">
-        <v>59.121332862144399</v>
+        <v>59.121332858337638</v>
       </c>
       <c r="AV2">
-        <v>60.035414282052457</v>
+        <v>60.035414176837556</v>
       </c>
       <c r="AW2">
-        <v>58.02072853857311</v>
+        <v>58.020728521914819</v>
       </c>
       <c r="AX2">
-        <v>68.833138383481057</v>
+        <v>68.833138349927367</v>
       </c>
       <c r="AY2">
-        <v>69.20218999038326</v>
+        <v>69.202189963473842</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>69.156115829416933</v>
+        <v>69.156115805873014</v>
       </c>
       <c r="C3">
-        <v>62.918148278098954</v>
+        <v>62.918148258702459</v>
       </c>
       <c r="D3">
-        <v>59.323930280907383</v>
+        <v>59.323930254915936</v>
       </c>
       <c r="E3">
-        <v>65.81573881083736</v>
+        <v>65.815738810943927</v>
       </c>
       <c r="F3">
-        <v>44.29922183002212</v>
+        <v>44.299221803136234</v>
       </c>
       <c r="G3">
-        <v>61.457772213339098</v>
+        <v>61.457772196397755</v>
       </c>
       <c r="H3">
-        <v>45.073170727588987</v>
+        <v>45.073170714192351</v>
       </c>
       <c r="I3">
-        <v>62.648616473199326</v>
+        <v>62.648616461739429</v>
       </c>
       <c r="J3">
-        <v>74.521661421735033</v>
+        <v>74.521661381737374</v>
       </c>
       <c r="K3">
-        <v>66.349445107002012</v>
+        <v>66.349445085553242</v>
       </c>
       <c r="L3">
-        <v>59.29755127864793</v>
+        <v>59.297551251795213</v>
       </c>
       <c r="M3">
-        <v>67.429862338624545</v>
+        <v>67.429895466243295</v>
       </c>
       <c r="N3">
-        <v>63.589254394291416</v>
+        <v>63.589254376254942</v>
       </c>
       <c r="O3">
-        <v>39.781867087753128</v>
+        <v>39.781867070184987</v>
       </c>
       <c r="P3">
-        <v>64.54873060812568</v>
+        <v>64.548730580221772</v>
       </c>
       <c r="Q3">
-        <v>55.851191381362369</v>
+        <v>55.85119135947096</v>
       </c>
       <c r="R3">
-        <v>48.857973186959548</v>
+        <v>48.857973149811514</v>
       </c>
       <c r="S3">
-        <v>75.669361247312068</v>
+        <v>75.669361242488037</v>
       </c>
       <c r="T3">
-        <v>65.662481559369567</v>
+        <v>65.662481541365352</v>
       </c>
       <c r="U3">
-        <v>63.347088892046514</v>
+        <v>63.34708888435847</v>
       </c>
       <c r="V3">
-        <v>57.218511509100722</v>
+        <v>57.218511494210489</v>
       </c>
       <c r="W3">
-        <v>50.973850088624914</v>
+        <v>50.973850050466957</v>
       </c>
       <c r="X3">
-        <v>51.711607283063742</v>
+        <v>51.711607266508892</v>
       </c>
       <c r="Y3">
-        <v>70.22259135289552</v>
+        <v>70.22259132263045</v>
       </c>
       <c r="Z3">
-        <v>66.180597741497394</v>
+        <v>66.180597726805303</v>
       </c>
       <c r="AA3">
-        <v>76.563780930117332</v>
+        <v>76.563780937035546</v>
       </c>
       <c r="AB3">
-        <v>72.035672403920074</v>
+        <v>72.035672363267196</v>
       </c>
       <c r="AC3">
-        <v>60.004992095666353</v>
+        <v>60.00499209433616</v>
       </c>
       <c r="AD3">
-        <v>78.14995312911293</v>
+        <v>78.149953070464719</v>
       </c>
       <c r="AE3">
-        <v>54.808740347828298</v>
+        <v>54.808740332076376</v>
       </c>
       <c r="AF3">
-        <v>64.516293951920403</v>
+        <v>64.516293920034713</v>
       </c>
       <c r="AG3">
-        <v>56.348414289233332</v>
+        <v>56.348414285415018</v>
       </c>
       <c r="AH3">
-        <v>71.464352696561761</v>
+        <v>71.464352634843877</v>
       </c>
       <c r="AI3">
-        <v>95.857914169210602</v>
+        <v>95.857914069013262</v>
       </c>
       <c r="AJ3">
-        <v>63.882086620235249</v>
+        <v>63.882086592895547</v>
       </c>
       <c r="AK3">
-        <v>68.19215789346498</v>
+        <v>68.192157876219582</v>
       </c>
       <c r="AL3">
-        <v>70.385276255867893</v>
+        <v>70.385276232591849</v>
       </c>
       <c r="AM3">
-        <v>72.762927673000462</v>
+        <v>72.762927595038093</v>
       </c>
       <c r="AN3">
-        <v>47.554372928943764</v>
+        <v>47.554372894281876</v>
       </c>
       <c r="AO3">
-        <v>72.728124741027486</v>
+        <v>72.728124705028492</v>
       </c>
       <c r="AP3">
-        <v>57.447145500983879</v>
+        <v>57.447145460708015</v>
       </c>
       <c r="AQ3">
-        <v>55.469973243509074</v>
+        <v>55.469973213141024</v>
       </c>
       <c r="AR3">
-        <v>85.967490279506137</v>
+        <v>85.967490272968107</v>
       </c>
       <c r="AS3">
-        <v>65.127346487825889</v>
+        <v>65.127346417125239</v>
       </c>
       <c r="AT3">
-        <v>66.638972811517775</v>
+        <v>66.638972755226291</v>
       </c>
       <c r="AU3">
-        <v>58.688922934380429</v>
+        <v>58.688922903522077</v>
       </c>
       <c r="AV3">
-        <v>53.866143387421815</v>
+        <v>53.866143295213973</v>
       </c>
       <c r="AW3">
-        <v>58.405300878936949</v>
+        <v>58.405300815119361</v>
       </c>
       <c r="AX3">
-        <v>63.767800025180421</v>
+        <v>63.767799973304982</v>
       </c>
       <c r="AY3">
-        <v>75.849334609115402</v>
+        <v>75.849334595894021</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>64.834632505440908</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>67.947673537278376</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>57.43651228730139</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>72.144336304373113</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.591047991433285</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>57.025117759742322</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>50.010262947930435</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>60.040052567073289</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>70.78082921430547</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>55.877018194198612</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>56.021116740067797</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.95593479909158</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>62.870613798574666</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>49.138467275708635</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>61.230305617511007</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>62.659795042100917</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>55.851088364072623</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>83.910993587561421</v>
+        <v>76.839755760125257</v>
       </c>
       <c r="T2">
         <v>65.560789742823403</v>
@@ -588,55 +477,55 @@
         <v>60.869262134303241</v>
       </c>
       <c r="AA2">
-        <v>77.321634358501868</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>79.657514980250568</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>52.926989733438624</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>79.63130605167369</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>52.112724816328949</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>60.536749411470382</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>53.47060504738495</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>63.102269571313599</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>80.957577597165198</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>57.898140456527408</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>61.614240614037215</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>70.468824583818929</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>65.128684398943349</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>51.940719555127188</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>69.169782868928792</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>67.901927248507334</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>58.111536687005135</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>83.092971971565547</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>69.156115805873014</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>62.918148258702459</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>59.323930254915936</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>65.815738810943927</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>44.299221803136234</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>61.457772196397755</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>45.073170714192351</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>62.648616461739429</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>74.521661381737374</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>66.349445085553242</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>59.297551251795213</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>67.429895466243295</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>63.589254376254942</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>39.781867070184987</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>64.548730580221772</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>55.85119135947096</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>48.857973149811514</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>75.669361242488037</v>
@@ -743,55 +629,55 @@
         <v>66.180597726805303</v>
       </c>
       <c r="AA3">
-        <v>76.563780937035546</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>72.035672363267196</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>60.00499209433616</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>78.149953070464719</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>54.808740332076376</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>64.516293920034713</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>56.348414285415018</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>71.464352634843877</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>95.857914069013262</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>63.882086592895547</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>68.192157876219582</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>70.385276232591849</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>72.762927595038093</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>47.554372894281876</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>72.728124705028492</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>57.447145460708015</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>55.469973213141024</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>85.967490272968107</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.834632488667438</v>
+        <v>49.138467275708635</v>
       </c>
       <c r="C2">
-        <v>65.639760080427138</v>
+        <v>55.851088364072623</v>
       </c>
       <c r="D2">
-        <v>57.436512327624328</v>
+        <v>51.940719555127188</v>
       </c>
       <c r="E2">
-        <v>72.144336324793272</v>
+        <v>58.111536687005135</v>
       </c>
       <c r="F2">
         <v>44.591048003342387</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>69.156115829416933</v>
+        <v>44.929400036024902</v>
       </c>
       <c r="C3">
-        <v>62.918148278098954</v>
+        <v>48.857973149811514</v>
       </c>
       <c r="D3">
-        <v>59.323930280907383</v>
+        <v>48.724044589012166</v>
       </c>
       <c r="E3">
-        <v>65.81573881083736</v>
+        <v>56.016889210026186</v>
       </c>
       <c r="F3">
         <v>44.29922183002212</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>64.834632488667438</v>
+        <v>62.077818775276398</v>
       </c>
       <c r="C2">
-        <v>65.639760080427138</v>
+        <v>49.138467275708635</v>
       </c>
       <c r="D2">
-        <v>57.436512327624328</v>
+        <v>65.128684398943349</v>
       </c>
       <c r="E2">
-        <v>72.144336324793272</v>
+        <v>51.940719555127188</v>
       </c>
       <c r="F2">
         <v>44.591048003342387</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>69.156115829416933</v>
+        <v>63.589254376254942</v>
       </c>
       <c r="C3">
-        <v>62.918148278098954</v>
+        <v>44.929400036024902</v>
       </c>
       <c r="D3">
-        <v>59.323930280907383</v>
+        <v>72.762927595038093</v>
       </c>
       <c r="E3">
-        <v>71.487193496477829</v>
+        <v>48.724044589012166</v>
       </c>
       <c r="F3">
         <v>44.29922183002212</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>64.834632505440908</v>
+      </c>
+      <c r="C2">
+        <v>65.639760062961543</v>
+      </c>
+      <c r="D2">
+        <v>57.43651228730139</v>
+      </c>
+      <c r="E2">
+        <v>72.144336304373113</v>
+      </c>
+      <c r="F2">
+        <v>44.591047991433285</v>
+      </c>
+      <c r="G2">
+        <v>60.327325216108292</v>
+      </c>
+      <c r="H2">
+        <v>50.010262947930435</v>
+      </c>
+      <c r="I2">
+        <v>63.725357312236376</v>
+      </c>
+      <c r="J2">
+        <v>70.78082921430547</v>
+      </c>
+      <c r="K2">
+        <v>55.877018194198612</v>
+      </c>
+      <c r="L2">
+        <v>57.069000763746004</v>
+      </c>
+      <c r="M2">
+        <v>72.629048460749374</v>
+      </c>
+      <c r="N2">
         <v>62.077818775276398</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>49.138467275708635</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>62.631126676426021</v>
+      </c>
+      <c r="Q2">
+        <v>62.659795042100917</v>
+      </c>
+      <c r="R2">
+        <v>55.851088364072623</v>
+      </c>
+      <c r="T2">
+        <v>62.344557608573886</v>
+      </c>
+      <c r="U2">
+        <v>59.624891615126103</v>
+      </c>
+      <c r="V2">
+        <v>55.237853027378343</v>
+      </c>
+      <c r="W2">
+        <v>47.340008942551847</v>
+      </c>
+      <c r="X2">
+        <v>57.859969361692244</v>
+      </c>
+      <c r="Y2">
+        <v>61.33813396443793</v>
+      </c>
+      <c r="Z2">
+        <v>60.869262134303241</v>
+      </c>
+      <c r="AA2">
+        <v>77.321634358501868</v>
+      </c>
+      <c r="AB2">
+        <v>79.657514980250568</v>
+      </c>
+      <c r="AC2">
+        <v>52.926989733438624</v>
+      </c>
+      <c r="AD2">
+        <v>79.63130605167369</v>
+      </c>
+      <c r="AE2">
+        <v>52.112724816328949</v>
+      </c>
+      <c r="AF2">
+        <v>60.536749411470382</v>
+      </c>
+      <c r="AG2">
+        <v>53.47060504738495</v>
+      </c>
+      <c r="AH2">
+        <v>63.102269571313599</v>
+      </c>
+      <c r="AI2">
+        <v>80.957577597165198</v>
+      </c>
+      <c r="AJ2">
+        <v>57.898140456527408</v>
+      </c>
+      <c r="AK2">
+        <v>61.614240614037215</v>
+      </c>
+      <c r="AL2">
+        <v>70.468824583818929</v>
+      </c>
+      <c r="AM2">
         <v>65.128684398943349</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>51.940719555127188</v>
       </c>
-      <c r="F2">
-        <v>44.591048003342387</v>
-      </c>
-      <c r="G2">
-        <v>60.327325216031873</v>
-      </c>
-      <c r="H2">
-        <v>50.010262968866094</v>
-      </c>
-      <c r="I2">
-        <v>63.725357300378299</v>
-      </c>
-      <c r="J2">
-        <v>70.780829258135753</v>
-      </c>
-      <c r="K2">
-        <v>55.877018205604401</v>
-      </c>
-      <c r="L2">
-        <v>57.069000802216578</v>
-      </c>
-      <c r="M2">
-        <v>72.62904845386133</v>
-      </c>
-      <c r="N2">
-        <v>62.077818795532991</v>
-      </c>
-      <c r="O2">
-        <v>49.138467305471991</v>
-      </c>
-      <c r="P2">
-        <v>62.631126679057118</v>
-      </c>
-      <c r="Q2">
-        <v>62.659795060827875</v>
-      </c>
-      <c r="R2">
-        <v>55.851088387138716</v>
-      </c>
-      <c r="T2">
-        <v>62.344557595299527</v>
-      </c>
-      <c r="U2">
-        <v>59.624891636901026</v>
-      </c>
-      <c r="V2">
-        <v>55.237853046361195</v>
-      </c>
-      <c r="W2">
-        <v>47.340008980371422</v>
-      </c>
-      <c r="X2">
-        <v>57.859969381595825</v>
-      </c>
-      <c r="Y2">
-        <v>61.338133987256612</v>
-      </c>
-      <c r="Z2">
-        <v>60.869262149411412</v>
-      </c>
-      <c r="AA2">
-        <v>77.321634496721884</v>
-      </c>
-      <c r="AB2">
-        <v>79.657515031509391</v>
-      </c>
-      <c r="AC2">
-        <v>52.92698976938955</v>
-      </c>
-      <c r="AD2">
-        <v>79.631306109162409</v>
-      </c>
-      <c r="AE2">
-        <v>52.112724821686754</v>
-      </c>
-      <c r="AF2">
-        <v>60.536749440029531</v>
-      </c>
-      <c r="AG2">
-        <v>53.470605111257619</v>
-      </c>
-      <c r="AH2">
-        <v>63.102269597014981</v>
-      </c>
-      <c r="AI2">
-        <v>80.957577667022321</v>
-      </c>
-      <c r="AJ2">
-        <v>57.898140498138105</v>
-      </c>
-      <c r="AK2">
-        <v>61.614240636809811</v>
-      </c>
-      <c r="AL2">
-        <v>70.468824616254039</v>
-      </c>
-      <c r="AM2">
-        <v>65.128684429994252</v>
-      </c>
-      <c r="AN2">
-        <v>51.940719576937454</v>
-      </c>
       <c r="AO2">
-        <v>69.169782931215138</v>
+        <v>69.169782868928792</v>
       </c>
       <c r="AP2">
-        <v>69.896417164888518</v>
+        <v>69.896417140607937</v>
       </c>
       <c r="AQ2">
-        <v>58.111536739526976</v>
+        <v>58.111536687005135</v>
       </c>
       <c r="AR2">
-        <v>83.092971982917604</v>
+        <v>83.092971971565547</v>
       </c>
       <c r="AS2">
-        <v>72.804139375117245</v>
+        <v>72.804139297719772</v>
       </c>
       <c r="AT2">
-        <v>67.200252838351759</v>
+        <v>67.20025281236984</v>
       </c>
       <c r="AU2">
-        <v>53.774606329098376</v>
+        <v>53.774606310974164</v>
       </c>
       <c r="AV2">
-        <v>60.035414282052457</v>
+        <v>60.035414176837556</v>
       </c>
       <c r="AW2">
-        <v>58.02072853857311</v>
+        <v>58.020728521914819</v>
       </c>
       <c r="AX2">
-        <v>68.833138383481057</v>
+        <v>68.833138349927367</v>
       </c>
       <c r="AY2">
-        <v>69.20218999038326</v>
+        <v>69.202189963473842</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>69.156115805873014</v>
+      </c>
+      <c r="C3">
+        <v>62.918148258702459</v>
+      </c>
+      <c r="D3">
+        <v>59.323930254915936</v>
+      </c>
+      <c r="E3">
+        <v>71.487193497021252</v>
+      </c>
+      <c r="F3">
+        <v>44.299221803136234</v>
+      </c>
+      <c r="G3">
+        <v>61.457772196397755</v>
+      </c>
+      <c r="H3">
+        <v>45.073170714192351</v>
+      </c>
+      <c r="I3">
+        <v>62.648616461739429</v>
+      </c>
+      <c r="J3">
+        <v>74.521661381737374</v>
+      </c>
+      <c r="K3">
+        <v>65.267225080658065</v>
+      </c>
+      <c r="L3">
+        <v>59.297551251795213</v>
+      </c>
+      <c r="M3">
+        <v>63.687119581931981</v>
+      </c>
+      <c r="N3">
         <v>63.589254376254942</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>44.929400036024902</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>64.548730580221772</v>
+      </c>
+      <c r="Q3">
+        <v>55.85119135947096</v>
+      </c>
+      <c r="R3">
+        <v>48.857973149811514</v>
+      </c>
+      <c r="S3">
+        <v>75.669361242488037</v>
+      </c>
+      <c r="T3">
+        <v>65.662481541365352</v>
+      </c>
+      <c r="U3">
+        <v>63.34708888435847</v>
+      </c>
+      <c r="V3">
+        <v>58.766492225574481</v>
+      </c>
+      <c r="W3">
+        <v>50.973850050466957</v>
+      </c>
+      <c r="X3">
+        <v>51.711607266508892</v>
+      </c>
+      <c r="Y3">
+        <v>70.22259132263045</v>
+      </c>
+      <c r="Z3">
+        <v>66.180597726805303</v>
+      </c>
+      <c r="AA3">
+        <v>76.563780937035546</v>
+      </c>
+      <c r="AB3">
+        <v>72.035672363267196</v>
+      </c>
+      <c r="AC3">
+        <v>60.00499209433616</v>
+      </c>
+      <c r="AD3">
+        <v>78.149953070464719</v>
+      </c>
+      <c r="AE3">
+        <v>54.808740332076376</v>
+      </c>
+      <c r="AF3">
+        <v>64.516293920034713</v>
+      </c>
+      <c r="AG3">
+        <v>56.348414285415018</v>
+      </c>
+      <c r="AH3">
+        <v>71.464352634843877</v>
+      </c>
+      <c r="AI3">
+        <v>74.736284631016545</v>
+      </c>
+      <c r="AJ3">
+        <v>63.882086592895547</v>
+      </c>
+      <c r="AK3">
+        <v>68.192157876219582</v>
+      </c>
+      <c r="AL3">
+        <v>70.385276232591849</v>
+      </c>
+      <c r="AM3">
         <v>72.762927595038093</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>48.724044589012166</v>
       </c>
-      <c r="F3">
-        <v>44.29922183002212</v>
-      </c>
-      <c r="G3">
-        <v>61.457772213339098</v>
-      </c>
-      <c r="H3">
-        <v>45.073170727588987</v>
-      </c>
-      <c r="I3">
-        <v>62.648616473199326</v>
-      </c>
-      <c r="J3">
-        <v>74.521661421735033</v>
-      </c>
-      <c r="K3">
-        <v>65.267225108471521</v>
-      </c>
-      <c r="L3">
-        <v>59.29755127864793</v>
-      </c>
-      <c r="M3">
-        <v>63.687099129760803</v>
-      </c>
-      <c r="N3">
-        <v>63.589254394291416</v>
-      </c>
-      <c r="O3">
-        <v>44.929400075101107</v>
-      </c>
-      <c r="P3">
-        <v>64.54873060812568</v>
-      </c>
-      <c r="Q3">
-        <v>55.851191381362369</v>
-      </c>
-      <c r="R3">
-        <v>48.857973186959548</v>
-      </c>
-      <c r="S3">
-        <v>75.669361247312068</v>
-      </c>
-      <c r="T3">
-        <v>65.662481559369567</v>
-      </c>
-      <c r="U3">
-        <v>63.347088892046514</v>
-      </c>
-      <c r="V3">
-        <v>58.766492231389925</v>
-      </c>
-      <c r="W3">
-        <v>50.973850088624914</v>
-      </c>
-      <c r="X3">
-        <v>51.711607283063742</v>
-      </c>
-      <c r="Y3">
-        <v>70.22259135289552</v>
-      </c>
-      <c r="Z3">
-        <v>66.180597741497394</v>
-      </c>
-      <c r="AA3">
-        <v>76.563780930117332</v>
-      </c>
-      <c r="AB3">
-        <v>72.035672403920074</v>
-      </c>
-      <c r="AC3">
-        <v>60.004992095666353</v>
-      </c>
-      <c r="AD3">
-        <v>78.14995312911293</v>
-      </c>
-      <c r="AE3">
-        <v>54.808740347828298</v>
-      </c>
-      <c r="AF3">
-        <v>64.516293951920403</v>
-      </c>
-      <c r="AG3">
-        <v>56.348414289233332</v>
-      </c>
-      <c r="AH3">
-        <v>71.464352696561761</v>
-      </c>
-      <c r="AI3">
-        <v>74.73628470501896</v>
-      </c>
-      <c r="AJ3">
-        <v>63.882086620235249</v>
-      </c>
-      <c r="AK3">
-        <v>68.19215789346498</v>
-      </c>
-      <c r="AL3">
-        <v>70.385276255867893</v>
-      </c>
-      <c r="AM3">
-        <v>72.762927673000462</v>
-      </c>
-      <c r="AN3">
-        <v>48.72404463033768</v>
-      </c>
       <c r="AO3">
-        <v>72.728124741027486</v>
+        <v>72.728124705028492</v>
       </c>
       <c r="AP3">
-        <v>57.447145500983879</v>
+        <v>57.447145460708015</v>
       </c>
       <c r="AQ3">
-        <v>56.016889221360664</v>
+        <v>56.016889210026186</v>
       </c>
       <c r="AR3">
-        <v>85.967490279506137</v>
+        <v>85.967490272968107</v>
       </c>
       <c r="AS3">
-        <v>65.127346487825889</v>
+        <v>65.127346417125239</v>
       </c>
       <c r="AT3">
-        <v>66.638972811517775</v>
+        <v>66.638972755226291</v>
       </c>
       <c r="AU3">
-        <v>59.658416695258182</v>
+        <v>59.658416693682938</v>
       </c>
       <c r="AV3">
-        <v>53.866143387421815</v>
+        <v>53.866143295213973</v>
       </c>
       <c r="AW3">
-        <v>58.405300878936949</v>
+        <v>58.405300815119361</v>
       </c>
       <c r="AX3">
-        <v>63.767800025180421</v>
+        <v>63.767799973304982</v>
       </c>
       <c r="AY3">
-        <v>75.849334609115402</v>
+        <v>75.849334595894021</v>
       </c>
     </row>
   </sheetData>
